--- a/documentacion/Presupuestos.xlsx
+++ b/documentacion/Presupuestos.xlsx
@@ -4,15 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Riesgos" sheetId="1" r:id="rId1"/>
-    <sheet name="Presupuesto Desarrollo" sheetId="2" r:id="rId2"/>
-    <sheet name="Presupuesto Cloud" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Desarrollo" sheetId="4" r:id="rId1"/>
+    <sheet name="Proyección de crecimiento mínim" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
+    <sheet name="Presupuesto Cloud" sheetId="3" r:id="rId4"/>
+    <sheet name="Riesgos" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="9" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
-  <si>
-    <t>RIE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="161">
   <si>
     <t>Capa</t>
   </si>
@@ -36,9 +37,6 @@
     <t>Unidad</t>
   </si>
   <si>
-    <t>Precio</t>
-  </si>
-  <si>
     <t>Load Balancing</t>
   </si>
   <si>
@@ -48,12 +46,6 @@
     <t>Relational Database Service - Aurora</t>
   </si>
   <si>
-    <t>Elastic Load Balancing - Bandwidth</t>
-  </si>
-  <si>
-    <t>Elastic Load Balancing - Data Transfer</t>
-  </si>
-  <si>
     <t>Monitoreo</t>
   </si>
   <si>
@@ -63,9 +55,6 @@
     <t>OpsGenie</t>
   </si>
   <si>
-    <t>AWS CloudWatch</t>
-  </si>
-  <si>
     <t>t2.large instance 1 year up front</t>
   </si>
   <si>
@@ -81,9 +70,6 @@
     <t>Big Data</t>
   </si>
   <si>
-    <t>Amazon Elastic Map Reduce</t>
-  </si>
-  <si>
     <t>Datawarehouse</t>
   </si>
   <si>
@@ -93,15 +79,9 @@
     <t>t2.small instance 1 year up front</t>
   </si>
   <si>
-    <t>Elastic Load Balancing - Active ELB endpoints</t>
-  </si>
-  <si>
     <t>S3 (Simple Storage System)</t>
   </si>
   <si>
-    <t>ELBs</t>
-  </si>
-  <si>
     <t>GB</t>
   </si>
   <si>
@@ -274,16 +254,280 @@
   </si>
   <si>
     <t>Users</t>
+  </si>
+  <si>
+    <t>Elastic Load Balancing - Hours</t>
+  </si>
+  <si>
+    <t>Elastic Load Balancing - GB of Data processed</t>
+  </si>
+  <si>
+    <t>Precio unidad</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Controladores</t>
+  </si>
+  <si>
+    <t>Tamaño del POST de vehículos</t>
+  </si>
+  <si>
+    <t>Tamaño del refresco de mapa</t>
+  </si>
+  <si>
+    <t>Vehículos x controlador</t>
+  </si>
+  <si>
+    <t>Requests x Min</t>
+  </si>
+  <si>
+    <t>#Servers (Max 200RPM)</t>
+  </si>
+  <si>
+    <t>#Web Servers real</t>
+  </si>
+  <si>
+    <t>Link:</t>
+  </si>
+  <si>
+    <t>Instances Hr</t>
+  </si>
+  <si>
+    <t>AWS CloudWatch Detailed 1 min</t>
+  </si>
+  <si>
+    <t>Instance Month</t>
+  </si>
+  <si>
+    <t>AWS CloudWatch Dashboards</t>
+  </si>
+  <si>
+    <t>Dashboards Month</t>
+  </si>
+  <si>
+    <t>Amazon Elastic Map Reduce Instances</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/rds/aurora/pricing/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/pricing/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/elasticloadbalancing/pricing/</t>
+  </si>
+  <si>
+    <t>https://newrelic.com/application-monitoring/pricing</t>
+  </si>
+  <si>
+    <t>https://www.opsgenie.com/pricing</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/cloudwatch/pricing/</t>
+  </si>
+  <si>
+    <t>Instance Hr (m4.large)</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/elasticmapreduce/pricing/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/s3/pricing/</t>
+  </si>
+  <si>
+    <t>GB/month</t>
+  </si>
+  <si>
+    <t>Instances/yr</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/redshift/pricing/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total (USD) </t>
+  </si>
+  <si>
+    <t>Total (ARS)</t>
+  </si>
+  <si>
+    <t>Elastic Load Balancers Hs</t>
+  </si>
+  <si>
+    <t>Trafico Vehículos GB</t>
+  </si>
+  <si>
+    <t>Tráfico Controladores GB</t>
+  </si>
+  <si>
+    <t>Totales</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Parametros de calculo</t>
+  </si>
+  <si>
+    <t>Tipo de Riesgo</t>
+  </si>
+  <si>
+    <t>Riesgo</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tecnológico</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Importaciones y Pagos al exterior</t>
+  </si>
+  <si>
+    <t>Nuevas Tecnologias de manejo autonomo</t>
+  </si>
+  <si>
+    <t>Desconocimiento de compromiso</t>
+  </si>
+  <si>
+    <t>Responsabilidad solidaria</t>
+  </si>
+  <si>
+    <t>Ausencia de marco regulatorio</t>
+  </si>
+  <si>
+    <t>Importación de aparatos de trackeo</t>
+  </si>
+  <si>
+    <t>Pago a proveedores de cloud en el exterior</t>
+  </si>
+  <si>
+    <t>Proveedores de telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Proveedor de desarrollo de software</t>
+  </si>
+  <si>
+    <t>Interés de las grandes empresas de internet</t>
+  </si>
+  <si>
+    <t>La aparición de nuevas tecnologías de conducción asistida o automática restan valor al concepto de controlar al conductor.</t>
+  </si>
+  <si>
+    <t>Horizonte</t>
+  </si>
+  <si>
+    <t>Lejano</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Las grandes empresas de Internet: Facebook/Google, cuentan con productos relacionados, si estuvieran interesadas podrian competir con mucha ventaja.</t>
+  </si>
+  <si>
+    <t>La posibilidad legal real de los proveedores de servicios de desconocer algún compromiso. Sea este un seguro o un servicio, debido al incumplimiento de alguna política (zona de cobertura, velocidad de manejo etc) en el caso de que la única evidencia de tal incumplimiento sea la información provista por el dispositivo y los servidores de CloudFleet. Defender la validez legal de la información de nuestros sensores y nuestros servidores, asi como la integridad de nuestra organización, son factores claves del éxito de CloudFleet.</t>
+  </si>
+  <si>
+    <t>La posibilidad de que un tribunal entienda que el incumplimiento de un servicio contratado mediante el uso de la plataforma sea responsabilidad total o solidaria de CloudFleet, sentaría un antecedente que pondria en riesgo la continuidad del negocio y podria significar un gran costo para la compañia.</t>
+  </si>
+  <si>
+    <t>La ausencia de un marco regulatorio para esta actividad (intermediador comercial para servicios del automovil) y para la gestión de servicios on demand y de tasación variable es un riesgo grande dado que si surgiera una regulación, la misma podría comprometer la continuidad del negocio.</t>
+  </si>
+  <si>
+    <t>Fallas del proveedor de cloud</t>
+  </si>
+  <si>
+    <t>La dificultad para acordar con los proveedores telecomunicaciones o un eventual aumento de los costos de las mismas ponen en riesgo la continuidad del negocio. Mucho mas teniendo en cuenta que los jugadores de telecomunicaciones móviles son pocos en todos los paises de operación.</t>
+  </si>
+  <si>
+    <t>Una vez contratado el proveedor de desarrollo de software podría: A) Incumplir, tanto en tiempos de entrega como en calidad o completitud del software B) Adoptar una posición dificil y aumentar los costos o retrasar entregas por considerarnos un cliente cautivo.</t>
+  </si>
+  <si>
+    <t>El proveedor de cloud podría fallar dejando fuera de servicio la plataforma.</t>
+  </si>
+  <si>
+    <t>Por dificultades comerciales en los distintos paises de operación, y siendo estos economias emergentes con un marco jurídico y político muchas veces impredecible, es apropiado considerar estos inconvenientes podrian dificultar seriamente la cadena de abastecimiento.</t>
+  </si>
+  <si>
+    <t>No es infrecuente que en los paises de operación haya problemas cambiarios y dificultades para hacer giros al exterior. Al menos dos de los paises de operación (Argentina y Venezuela) tienen o tuvieron restricciones de este orden en los últimos 2 años.</t>
+  </si>
+  <si>
+    <t>Probabilidad</t>
+  </si>
+  <si>
+    <t>Impacto</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Moderada</t>
+  </si>
+  <si>
+    <t>Corto</t>
+  </si>
+  <si>
+    <t>Dependencias comerciales, tecnológicas</t>
+  </si>
+  <si>
+    <t>Mercado</t>
+  </si>
+  <si>
+    <t>Financiero</t>
+  </si>
+  <si>
+    <t>Continuidad</t>
+  </si>
+  <si>
+    <t>Afectación</t>
+  </si>
+  <si>
+    <t>Tableau Desktop (Licencia</t>
+  </si>
+  <si>
+    <t>Licencias</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of USD</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;ARS&quot;* #,##0.00_-;\-&quot;ARS&quot;* #,##0.00_-;_-&quot;ARS&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -348,7 +592,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,8 +611,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -645,18 +901,363 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -673,51 +1274,668 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="34" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="35" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="79">
+    <cellStyle name="Comma" xfId="8" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;ARS&quot;* #,##0.00_-;\-&quot;ARS&quot;* #,##0.00_-;_-&quot;ARS&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;ARS&quot;* #,##0.00_-;\-&quot;ARS&quot;* #,##0.00_-;_-&quot;ARS&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Administración</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Base de Datos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Big Data</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Datawarehouse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Load Balancing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Monitoreo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WebServers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1385.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1824.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10896.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>225.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15559.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9060.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Leopoldo Lugones" refreshedDate="42569.056646874997" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="13">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="J1:K14" sheet="Presupuesto Cloud"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Capa" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Load Balancing"/>
+        <s v="WebServers"/>
+        <s v="Administración"/>
+        <s v="Base de Datos"/>
+        <s v="Monitoreo"/>
+        <s v="Big Data"/>
+        <s v="Datawarehouse"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="USD" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.76" maxValue="15000" count="13">
+        <n v="219"/>
+        <n v="6.76"/>
+        <n v="9060"/>
+        <n v="151"/>
+        <n v="1385"/>
+        <n v="15000"/>
+        <n v="120"/>
+        <n v="367.5"/>
+        <n v="72"/>
+        <n v="1680.0000000000002"/>
+        <n v="144"/>
+        <n v="3996"/>
+        <n v="6900"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="13">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:I5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="14">
+        <item x="1"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of USD" fld="1" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1042,22 +2260,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="69.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:2" ht="16" thickBot="1"/>
+    <row r="2" spans="1:2" ht="20">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="20">
+        <f>120000/160</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" thickBot="1">
+      <c r="A4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="21">
+        <f>B3*1.4</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" thickBot="1"/>
+    <row r="6" spans="1:2" ht="21" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="25"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" thickBot="1">
+      <c r="A13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="25"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16" thickBot="1">
+      <c r="A27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="25"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16" thickBot="1">
+      <c r="A47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="1">
+        <v>8</v>
+      </c>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16" thickBot="1">
+      <c r="A52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18">
+      <c r="A53" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="13">
+        <f>SUM(B7:B52)</f>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="19" thickBot="1">
+      <c r="A54" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="15">
+        <f>B53*0.2</f>
+        <v>119.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="19" thickBot="1">
+      <c r="A55" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="17">
+        <f>B53*B3+B54*B4</f>
+        <v>572160</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
@@ -1065,16 +2698,577 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" activeCellId="1" sqref="A7:A18 I7:I18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="45">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="45">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" thickBot="1">
+      <c r="A4" s="105" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" thickBot="1"/>
+    <row r="6" spans="1:9">
+      <c r="A6" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="59">
+        <v>1</v>
+      </c>
+      <c r="B7" s="56">
+        <v>100</v>
+      </c>
+      <c r="C7" s="55">
+        <v>6</v>
+      </c>
+      <c r="D7" s="57">
+        <f>B7*$D$2*60*24*30/1024/1024/1024</f>
+        <v>4.119873046875</v>
+      </c>
+      <c r="E7" s="57">
+        <f>C7*$D$3*6*60*24*30/1024/1024/1024</f>
+        <v>7.2419643402099609</v>
+      </c>
+      <c r="F7" s="58">
+        <f>B7+C7*6</f>
+        <v>136</v>
+      </c>
+      <c r="G7" s="55">
+        <f>F7/200</f>
+        <v>0.68</v>
+      </c>
+      <c r="H7" s="55">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <f>H7*24*30</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="59">
+        <f>A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="56">
+        <f>B7*1.3</f>
+        <v>130</v>
+      </c>
+      <c r="C8" s="56">
+        <f>C7*1.3</f>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="D8" s="57">
+        <f t="shared" ref="D8:D18" si="0">B8*$D$2*60*24*30/1024/1024/1024</f>
+        <v>5.3558349609375</v>
+      </c>
+      <c r="E8" s="57">
+        <f t="shared" ref="E8:E18" si="1">C8*$D$3*6*60*24*30/1024/1024/1024</f>
+        <v>9.4145536422729492</v>
+      </c>
+      <c r="F8" s="58">
+        <f>B8+C8*6</f>
+        <v>176.8</v>
+      </c>
+      <c r="G8" s="57">
+        <f t="shared" ref="G8:G18" si="2">F8/200</f>
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="H8" s="55">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ref="I8:I18" si="3">H8*24*30</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="59">
+        <f t="shared" ref="A9:A18" si="4">A8+1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="56">
+        <f t="shared" ref="B9:B18" si="5">B8*1.3</f>
+        <v>169</v>
+      </c>
+      <c r="C9" s="56">
+        <f t="shared" ref="C9:C18" si="6">C8*1.3</f>
+        <v>10.14</v>
+      </c>
+      <c r="D9" s="57">
+        <f t="shared" si="0"/>
+        <v>6.96258544921875</v>
+      </c>
+      <c r="E9" s="57">
+        <f t="shared" si="1"/>
+        <v>12.238919734954834</v>
+      </c>
+      <c r="F9" s="58">
+        <f>B9+C9*6</f>
+        <v>229.84</v>
+      </c>
+      <c r="G9" s="57">
+        <f t="shared" si="2"/>
+        <v>1.1492</v>
+      </c>
+      <c r="H9" s="55">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="59">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="56">
+        <f t="shared" si="5"/>
+        <v>219.70000000000002</v>
+      </c>
+      <c r="C10" s="56">
+        <f t="shared" si="6"/>
+        <v>13.182</v>
+      </c>
+      <c r="D10" s="57">
+        <f t="shared" si="0"/>
+        <v>9.0513610839843768</v>
+      </c>
+      <c r="E10" s="57">
+        <f t="shared" si="1"/>
+        <v>15.910595655441284</v>
+      </c>
+      <c r="F10" s="58">
+        <f>B10+C10*6</f>
+        <v>298.79200000000003</v>
+      </c>
+      <c r="G10" s="57">
+        <f t="shared" si="2"/>
+        <v>1.4939600000000002</v>
+      </c>
+      <c r="H10" s="55">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="59">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="56">
+        <f t="shared" si="5"/>
+        <v>285.61</v>
+      </c>
+      <c r="C11" s="56">
+        <f t="shared" si="6"/>
+        <v>17.136600000000001</v>
+      </c>
+      <c r="D11" s="57">
+        <f t="shared" si="0"/>
+        <v>11.766769409179688</v>
+      </c>
+      <c r="E11" s="57">
+        <f t="shared" si="1"/>
+        <v>20.683774352073669</v>
+      </c>
+      <c r="F11" s="58">
+        <f>B11+C11*6</f>
+        <v>388.42960000000005</v>
+      </c>
+      <c r="G11" s="57">
+        <f t="shared" si="2"/>
+        <v>1.9421480000000002</v>
+      </c>
+      <c r="H11" s="55">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="59">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="56">
+        <f t="shared" si="5"/>
+        <v>371.29300000000001</v>
+      </c>
+      <c r="C12" s="56">
+        <f t="shared" si="6"/>
+        <v>22.277580000000004</v>
+      </c>
+      <c r="D12" s="57">
+        <f t="shared" si="0"/>
+        <v>15.296800231933595</v>
+      </c>
+      <c r="E12" s="57">
+        <f t="shared" si="1"/>
+        <v>26.888906657695777</v>
+      </c>
+      <c r="F12" s="58">
+        <f t="shared" ref="F12:F18" si="7">B12+C12*6</f>
+        <v>504.95848000000001</v>
+      </c>
+      <c r="G12" s="57">
+        <f t="shared" si="2"/>
+        <v>2.5247923999999999</v>
+      </c>
+      <c r="H12" s="55">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="59">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="56">
+        <f t="shared" si="5"/>
+        <v>482.68090000000001</v>
+      </c>
+      <c r="C13" s="56">
+        <f t="shared" si="6"/>
+        <v>28.960854000000005</v>
+      </c>
+      <c r="D13" s="57">
+        <f t="shared" si="0"/>
+        <v>19.885840301513674</v>
+      </c>
+      <c r="E13" s="57">
+        <f t="shared" si="1"/>
+        <v>34.955578655004508</v>
+      </c>
+      <c r="F13" s="58">
+        <f t="shared" si="7"/>
+        <v>656.44602400000008</v>
+      </c>
+      <c r="G13" s="57">
+        <f t="shared" si="2"/>
+        <v>3.2822301200000004</v>
+      </c>
+      <c r="H13" s="55">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="3"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="59">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="56">
+        <f t="shared" si="5"/>
+        <v>627.48517000000004</v>
+      </c>
+      <c r="C14" s="56">
+        <f t="shared" si="6"/>
+        <v>37.64911020000001</v>
+      </c>
+      <c r="D14" s="57">
+        <f t="shared" si="0"/>
+        <v>25.851592391967777</v>
+      </c>
+      <c r="E14" s="57">
+        <f t="shared" si="1"/>
+        <v>45.442252251505863</v>
+      </c>
+      <c r="F14" s="58">
+        <f t="shared" si="7"/>
+        <v>853.37983120000013</v>
+      </c>
+      <c r="G14" s="57">
+        <f t="shared" si="2"/>
+        <v>4.2668991560000009</v>
+      </c>
+      <c r="H14" s="55">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="3"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="59">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="56">
+        <f t="shared" si="5"/>
+        <v>815.73072100000013</v>
+      </c>
+      <c r="C15" s="56">
+        <f t="shared" si="6"/>
+        <v>48.943843260000016</v>
+      </c>
+      <c r="D15" s="57">
+        <f t="shared" si="0"/>
+        <v>33.607070109558116</v>
+      </c>
+      <c r="E15" s="57">
+        <f t="shared" si="1"/>
+        <v>59.074927926957628</v>
+      </c>
+      <c r="F15" s="58">
+        <f t="shared" si="7"/>
+        <v>1109.3937805600003</v>
+      </c>
+      <c r="G15" s="57">
+        <f t="shared" si="2"/>
+        <v>5.5469689028000015</v>
+      </c>
+      <c r="H15" s="55">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="3"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="59">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="56">
+        <f t="shared" si="5"/>
+        <v>1060.4499373000001</v>
+      </c>
+      <c r="C16" s="56">
+        <f t="shared" si="6"/>
+        <v>63.626996238000025</v>
+      </c>
+      <c r="D16" s="57">
+        <f t="shared" si="0"/>
+        <v>43.689191142425543</v>
+      </c>
+      <c r="E16" s="57">
+        <f t="shared" si="1"/>
+        <v>76.797406305044916</v>
+      </c>
+      <c r="F16" s="58">
+        <f t="shared" si="7"/>
+        <v>1442.2119147280002</v>
+      </c>
+      <c r="G16" s="57">
+        <f t="shared" si="2"/>
+        <v>7.2110595736400009</v>
+      </c>
+      <c r="H16" s="55">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="3"/>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="59">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="56">
+        <f t="shared" si="5"/>
+        <v>1378.5849184900003</v>
+      </c>
+      <c r="C17" s="56">
+        <f t="shared" si="6"/>
+        <v>82.715095109400039</v>
+      </c>
+      <c r="D17" s="57">
+        <f t="shared" si="0"/>
+        <v>56.795948485153211</v>
+      </c>
+      <c r="E17" s="57">
+        <f t="shared" si="1"/>
+        <v>99.836628196558379</v>
+      </c>
+      <c r="F17" s="58">
+        <f t="shared" si="7"/>
+        <v>1874.8754891464005</v>
+      </c>
+      <c r="G17" s="57">
+        <f t="shared" si="2"/>
+        <v>9.3743774457320015</v>
+      </c>
+      <c r="H17" s="55">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16" thickBot="1">
+      <c r="A18" s="60">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="61">
+        <f t="shared" si="5"/>
+        <v>1792.1603940370005</v>
+      </c>
+      <c r="C18" s="61">
+        <f t="shared" si="6"/>
+        <v>107.52962364222006</v>
+      </c>
+      <c r="D18" s="62">
+        <f t="shared" si="0"/>
+        <v>73.834733030699169</v>
+      </c>
+      <c r="E18" s="62">
+        <f t="shared" si="1"/>
+        <v>129.78761665552594</v>
+      </c>
+      <c r="F18" s="63">
+        <f t="shared" si="7"/>
+        <v>2437.3381358903207</v>
+      </c>
+      <c r="G18" s="62">
+        <f t="shared" si="2"/>
+        <v>12.186690679451603</v>
+      </c>
+      <c r="H18" s="64">
+        <v>15</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="3"/>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16" thickBot="1">
+      <c r="A19" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="52">
+        <f>SUM(D7:D18)</f>
+        <v>306.21759964344642</v>
+      </c>
+      <c r="E19" s="52">
+        <f>SUM(E7:E18)</f>
+        <v>538.27312437324565</v>
+      </c>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54">
+        <f>SUM(I7:I18)</f>
+        <v>74880</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="E20" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A19:C19"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="87" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
@@ -1082,175 +3276,90 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F13"/>
+  <dimension ref="A3:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="26" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="119" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="2:6">
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
+      <c r="I4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="120">
+        <v>151</v>
+      </c>
+      <c r="C5" s="120">
+        <v>1385</v>
+      </c>
+      <c r="D5" s="120">
+        <v>1824.0000000000002</v>
+      </c>
+      <c r="E5" s="120">
+        <v>10896</v>
+      </c>
+      <c r="F5" s="120">
+        <v>225.76</v>
+      </c>
+      <c r="G5" s="120">
+        <v>15559.5</v>
+      </c>
+      <c r="H5" s="120">
+        <v>9060</v>
+      </c>
+      <c r="I5" s="120">
+        <v>39101.26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1264,429 +3373,749 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="69.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" thickBot="1">
-      <c r="A1" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="20" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="22">
-        <f>120000/160</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="D3" s="21" t="s">
+      <c r="F1" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="23">
-        <f>E2*1.4</f>
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="G1" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="28">
+        <f>24*365</f>
+        <v>8760</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F2" s="30">
+        <f>C2*E2</f>
+        <v>219</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="28">
+        <v>845</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="29">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F3" s="30">
+        <f>C3*E3</f>
+        <v>6.76</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="28">
+        <v>15</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="30">
+        <v>604</v>
+      </c>
+      <c r="F4" s="30">
+        <f t="shared" ref="F4:F14" si="0">E4*C4</f>
+        <v>9060</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>9060</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="28">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="30">
+        <v>151</v>
+      </c>
+      <c r="F5" s="30">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="30">
+        <v>1385</v>
+      </c>
+      <c r="F6" s="30">
+        <f t="shared" si="0"/>
+        <v>1385</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="28">
+        <v>75000</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="30">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="28">
+        <v>5</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="30">
+        <v>24</v>
+      </c>
+      <c r="F8" s="30">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="28">
+        <v>105</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="30">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="30">
+        <f t="shared" si="0"/>
+        <v>367.5</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>367.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="28">
+        <v>24</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="30">
+        <v>3</v>
+      </c>
+      <c r="F10" s="30">
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="B4" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" thickBot="1">
-      <c r="A8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" thickBot="1">
-      <c r="A22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="11"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16" thickBot="1">
-      <c r="A42" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="4">
+      <c r="G10" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="28">
+        <v>24000</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F11" s="30">
+        <f t="shared" si="0"/>
+        <v>1680.0000000000002</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>1680.0000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="28">
+        <f>400 *12</f>
+        <v>4800</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="F12" s="30">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="101" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="101">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16" thickBot="1">
-      <c r="A47" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="18">
-      <c r="A48" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="15">
-        <f>SUM(B2:B47)</f>
-        <v>596</v>
-      </c>
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="1:3" ht="19" thickBot="1">
-      <c r="A49" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="17">
-        <f>B48*0.2</f>
-        <v>119.2</v>
-      </c>
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="1:3" ht="19" thickBot="1">
-      <c r="A50" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="19">
-        <f>B48*E2+B49*E3</f>
-        <v>572160</v>
+      <c r="D13" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="30">
+        <v>999</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" si="0"/>
+        <v>3996</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="J13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16" thickBot="1">
+      <c r="A14" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="33">
+        <v>5</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="34">
+        <v>1380</v>
+      </c>
+      <c r="F14" s="34">
+        <f t="shared" si="0"/>
+        <v>6900</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="42">
+        <f>SUM(F2:F14)</f>
+        <v>39101.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16" thickBot="1">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="44">
+        <f>F15*15.2</f>
+        <v>594339.152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="112.5" customWidth="1"/>
+    <col min="5" max="7" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="111"/>
+      <c r="B3" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60">
+      <c r="A4" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="81" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="113"/>
+      <c r="B5" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="81" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45">
+      <c r="A6" s="114"/>
+      <c r="B6" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45">
+      <c r="A7" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="84" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="116"/>
+      <c r="B8" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="84" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="117"/>
+      <c r="B9" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="96" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="31" thickBot="1">
+      <c r="A11" s="118"/>
+      <c r="B11" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="93" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="71" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="55" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
